--- a/app/src/FOLDERESBASENUEVA.xlsx
+++ b/app/src/FOLDERESBASENUEVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Esteban\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas Esteban\PycharmProjects\revisionDeActuacionesConsola\app\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C70B5525-B344-4A8C-BA1F-2AAC8B45098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76A7D6C-0745-486D-8459-505D633B549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D9437376-C962-42FA-8FB8-4FD1EFB792EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="999">
   <si>
     <t>NUMERO DE RADICACION</t>
   </si>
@@ -3030,6 +3030,9 @@
   </si>
   <si>
     <t>73001312100120210023800</t>
+  </si>
+  <si>
+    <t>11001310300120150083800</t>
   </si>
 </sst>
 </file>
@@ -3509,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87073B51-B866-40C6-A3E7-B9854DC76757}">
-  <dimension ref="B1:B1007"/>
+  <dimension ref="B1:B1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A991" workbookViewId="0">
+      <selection activeCell="E993" sqref="E993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -8555,6 +8558,11 @@
         <v>997</v>
       </c>
     </row>
+    <row r="1008" spans="2:2">
+      <c r="B1008" s="18" t="s">
+        <v>998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
